--- a/site/python/qa_report.xlsx
+++ b/site/python/qa_report.xlsx
@@ -16,417 +16,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="160">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>Sly Lee</t>
+  </si>
+  <si>
     <t>Archie Chaudhury</t>
   </si>
   <si>
     <t>Fintech Lab Student 2</t>
   </si>
   <si>
+    <t>Aryan Sheikhalian</t>
+  </si>
+  <si>
+    <t>Shailee Adinolfi</t>
+  </si>
+  <si>
+    <t>Marlon Williams</t>
+  </si>
+  <si>
     <t>Ilya</t>
   </si>
   <si>
+    <t>Justin Daniels</t>
+  </si>
+  <si>
+    <t>Erik Van Winkle</t>
+  </si>
+  <si>
+    <t>Alex Carter</t>
+  </si>
+  <si>
     <t>Jeffery Woerner</t>
   </si>
   <si>
+    <t>Colton Conley</t>
+  </si>
+  <si>
+    <t>Luca Netz</t>
+  </si>
+  <si>
+    <t>Sriram Vishwanath</t>
+  </si>
+  <si>
+    <t>Fintech Lab Student 3</t>
+  </si>
+  <si>
+    <t>Matthew Wyatt - Nucleo</t>
+  </si>
+  <si>
+    <t>Gregory Johnson</t>
+  </si>
+  <si>
+    <t>Fintech Lab Student 1</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Speaker 1</t>
+  </si>
+  <si>
+    <t>Speaker 2</t>
+  </si>
+  <si>
+    <t>Speaker 3</t>
+  </si>
+  <si>
+    <t>Speaker 4</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t>Tech Square Social Club</t>
+  </si>
+  <si>
+    <t>Ballroom</t>
+  </si>
+  <si>
+    <t>Coda Rooftop</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>9:20</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>9:15</t>
+  </si>
+  <si>
+    <t>9:45</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>Web3 ATL Launch Party</t>
+  </si>
+  <si>
+    <t>Why are we here?</t>
+  </si>
+  <si>
+    <t>The Evolution of Blockchain Technology</t>
+  </si>
+  <si>
+    <t>Coffee Break</t>
+  </si>
+  <si>
+    <t>Blockchain Applications in Health Care</t>
+  </si>
+  <si>
+    <t>Blockchain Applications in Digital Identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binance </t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Pillars of Web3</t>
+  </si>
+  <si>
+    <t>Bringing Legacy Brands into Web3</t>
+  </si>
+  <si>
+    <t>Community in a Digital World</t>
+  </si>
+  <si>
+    <t>Entreprenuership in Web3</t>
+  </si>
+  <si>
+    <t>Venture Capital in Web3</t>
+  </si>
+  <si>
+    <t>Saturday Closing</t>
+  </si>
+  <si>
+    <t>Afterparty on Coda Rooftop</t>
+  </si>
+  <si>
+    <t>Sunday Opening</t>
+  </si>
+  <si>
+    <t>Web3 Gaming</t>
+  </si>
+  <si>
+    <t>Building On-chain Lending Books</t>
+  </si>
+  <si>
+    <t>Developer Tools and Infrastructure</t>
+  </si>
+  <si>
+    <t>State of Decentralized Finance</t>
+  </si>
+  <si>
+    <t>Institutional Money Markets</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Crypto Compliance: Law and Regulation</t>
+  </si>
+  <si>
+    <t>Cross-Border Payments and Stablecoins</t>
+  </si>
+  <si>
+    <t>Decentralized Science: Protocol Labs</t>
+  </si>
+  <si>
+    <t>Applications of Zero Knowledge Proofs</t>
+  </si>
+  <si>
+    <t>How to get a job in Web3</t>
+  </si>
+  <si>
+    <t>Hackathon Winners</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>Fireside Chat</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Keynote</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel </t>
+  </si>
+  <si>
+    <t>Pruitt</t>
+  </si>
+  <si>
+    <t>Jim Nasr</t>
+  </si>
+  <si>
+    <t>Frank Hinek</t>
+  </si>
+  <si>
+    <t>Austin Cain</t>
+  </si>
+  <si>
+    <t>Rob Montgomery</t>
+  </si>
+  <si>
+    <t>Lydia Hylton</t>
+  </si>
+  <si>
+    <t>Quinn Campbell</t>
+  </si>
+  <si>
+    <t>Thomas Boehner</t>
+  </si>
+  <si>
+    <t>Jonathan King</t>
+  </si>
+  <si>
+    <t>Dan Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanson Birringer </t>
+  </si>
+  <si>
+    <t>JoAnn Holmes</t>
+  </si>
+  <si>
+    <t>Luther Maday</t>
+  </si>
+  <si>
+    <t>Aleo</t>
+  </si>
+  <si>
+    <t>Will Burleson</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
     <t>Kell Canty</t>
-  </si>
-  <si>
-    <t>Daniel Cage</t>
-  </si>
-  <si>
-    <t>Sam Fieldman</t>
-  </si>
-  <si>
-    <t>Sriram Vishwanath</t>
-  </si>
-  <si>
-    <t>Luca Netz</t>
-  </si>
-  <si>
-    <t>Avery Barlett</t>
-  </si>
-  <si>
-    <t>Gregory Johnson</t>
-  </si>
-  <si>
-    <t>Matt McElroy</t>
-  </si>
-  <si>
-    <t>Aryan Sheikhalian</t>
-  </si>
-  <si>
-    <t>Justin Daniels</t>
-  </si>
-  <si>
-    <t>Fintech Lab Student 3</t>
-  </si>
-  <si>
-    <t>Shailee Adinolfi</t>
-  </si>
-  <si>
-    <t>Colton Conley</t>
-  </si>
-  <si>
-    <t>Alex Carter</t>
-  </si>
-  <si>
-    <t>Fintech Lab Student 1</t>
-  </si>
-  <si>
-    <t>Matthew Wyatt - Nucleo</t>
-  </si>
-  <si>
-    <t>Erik Van Winkle</t>
-  </si>
-  <si>
-    <t>Sly Lee</t>
-  </si>
-  <si>
-    <t>Elizabeth Morrison</t>
-  </si>
-  <si>
-    <t>Marlon Williams</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Speaker 1</t>
-  </si>
-  <si>
-    <t>Speaker 2</t>
-  </si>
-  <si>
-    <t>Speaker 3</t>
-  </si>
-  <si>
-    <t>Speaker 4</t>
-  </si>
-  <si>
-    <t>Moderator</t>
-  </si>
-  <si>
-    <t>Tech Square Social Club</t>
-  </si>
-  <si>
-    <t>Ballroom</t>
-  </si>
-  <si>
-    <t>Coda Rooftop</t>
-  </si>
-  <si>
-    <t>conference</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>9:20</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:25</t>
-  </si>
-  <si>
-    <t>11:45</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>14:35</t>
-  </si>
-  <si>
-    <t>15:10</t>
-  </si>
-  <si>
-    <t>15:50</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>9:15</t>
-  </si>
-  <si>
-    <t>9:45</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>14:05</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>15:15</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
-    <t>15:55</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>10:55</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
-    <t>12:50</t>
-  </si>
-  <si>
-    <t>13:20</t>
-  </si>
-  <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>15:05</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:25</t>
-  </si>
-  <si>
-    <t>15:35</t>
-  </si>
-  <si>
-    <t>Web3 ATL Launch Party</t>
-  </si>
-  <si>
-    <t>Why are we here?</t>
-  </si>
-  <si>
-    <t>The Evolution of Blockchain Technology</t>
-  </si>
-  <si>
-    <t>Coffee Break</t>
-  </si>
-  <si>
-    <t>Blockchain Applications in Health Care</t>
-  </si>
-  <si>
-    <t>Blockchain Applications in Digital Identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binance </t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>Pillars of Web3</t>
-  </si>
-  <si>
-    <t>Bringing Legacy Brands into Web3</t>
-  </si>
-  <si>
-    <t>Community in a Digital World</t>
-  </si>
-  <si>
-    <t>Entreprenuership in Web3</t>
-  </si>
-  <si>
-    <t>Venture Capital in Web3</t>
-  </si>
-  <si>
-    <t>Saturday Closing</t>
-  </si>
-  <si>
-    <t>Afterparty on Coda Rooftop</t>
-  </si>
-  <si>
-    <t>Sunday Opening</t>
-  </si>
-  <si>
-    <t>Web3 Gaming</t>
-  </si>
-  <si>
-    <t>Building On-chain Lending Books</t>
-  </si>
-  <si>
-    <t>Developer Tools and Infrastructure</t>
-  </si>
-  <si>
-    <t>State of Decentralized Finance</t>
-  </si>
-  <si>
-    <t>Institutional Money Markets</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Crypto Compliance: Law and Regulation</t>
-  </si>
-  <si>
-    <t>Cross-Border Payments and Stablecoins</t>
-  </si>
-  <si>
-    <t>Decentralized Science: Protocol Labs</t>
-  </si>
-  <si>
-    <t>Applications of Zero Knowledge Proofs</t>
-  </si>
-  <si>
-    <t>How to get a job in Web3</t>
-  </si>
-  <si>
-    <t>Hackathon Winners</t>
-  </si>
-  <si>
-    <t>Closing</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Announcement</t>
-  </si>
-  <si>
-    <t>Fireside Chat</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>Keynote</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panel </t>
-  </si>
-  <si>
-    <t>Pruitt</t>
-  </si>
-  <si>
-    <t>Jim Nasr</t>
-  </si>
-  <si>
-    <t>Frank Hinek</t>
-  </si>
-  <si>
-    <t>Austin Cain</t>
-  </si>
-  <si>
-    <t>Rob Montgomery</t>
-  </si>
-  <si>
-    <t>Lydia Hylton</t>
-  </si>
-  <si>
-    <t>Quinn Campbell</t>
-  </si>
-  <si>
-    <t>Thomas Boehner</t>
-  </si>
-  <si>
-    <t>Jonathan King</t>
-  </si>
-  <si>
-    <t>Dan Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanson Birringer </t>
-  </si>
-  <si>
-    <t>JoAnn Holmes</t>
-  </si>
-  <si>
-    <t>Luther Maday</t>
-  </si>
-  <si>
-    <t>Aleo</t>
-  </si>
-  <si>
-    <t>Will Burleson</t>
-  </si>
-  <si>
-    <t>Jack</t>
   </si>
   <si>
     <t>Shahar Abrams</t>
@@ -876,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,36 +960,6 @@
     <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1022,919 +977,919 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" t="s">
-        <v>121</v>
-      </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s">
         <v>150</v>
       </c>
-      <c r="K12" t="s">
-        <v>155</v>
-      </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
         <v>119</v>
       </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G10">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="18">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
       <formula>LEN(TRIM(G14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+      <formula>LEN(TRIM(G15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="notContainsBlanks" dxfId="0" priority="30">
-      <formula>LEN(TRIM(G15))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+      <formula>LEN(TRIM(G16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
     <cfRule type="notContainsBlanks" dxfId="0" priority="31">
-      <formula>LEN(TRIM(G16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+      <formula>LEN(TRIM(G17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="notContainsBlanks" dxfId="0" priority="32">
-      <formula>LEN(TRIM(G17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(G18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="34">
       <formula>LEN(TRIM(G19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1944,47 +1899,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
       <formula>LEN(TRIM(G20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+      <formula>LEN(TRIM(G21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="notContainsBlanks" dxfId="0" priority="40">
-      <formula>LEN(TRIM(G21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
       <formula>LEN(TRIM(G22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
+      <formula>LEN(TRIM(G24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="notContainsBlanks" dxfId="0" priority="46">
-      <formula>LEN(TRIM(G24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
       <formula>LEN(TRIM(G25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="48">
       <formula>LEN(TRIM(G26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="50">
       <formula>LEN(TRIM(G27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="54">
+      <formula>LEN(TRIM(G28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="notContainsBlanks" dxfId="0" priority="55">
-      <formula>LEN(TRIM(G28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="56">
       <formula>LEN(TRIM(G29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1994,7 +1949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="56">
       <formula>LEN(TRIM(G30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2004,57 +1959,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10">
+      <formula>LEN(TRIM(G5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="notContainsBlanks" dxfId="0" priority="11">
-      <formula>LEN(TRIM(G5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+      <formula>LEN(TRIM(G6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="12">
-      <formula>LEN(TRIM(G6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+      <formula>LEN(TRIM(G7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
     <cfRule type="notContainsBlanks" dxfId="0" priority="13">
-      <formula>LEN(TRIM(G7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="14">
       <formula>LEN(TRIM(G8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
       <formula>LEN(TRIM(H12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
       <formula>LEN(TRIM(H19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
       <formula>LEN(TRIM(H22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
       <formula>LEN(TRIM(H26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
       <formula>LEN(TRIM(H27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2069,42 +2024,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="14">
       <formula>LEN(TRIM(H8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="22">
       <formula>LEN(TRIM(I12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="28">
       <formula>LEN(TRIM(I14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="36">
       <formula>LEN(TRIM(I19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="38">
       <formula>LEN(TRIM(I20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="42">
       <formula>LEN(TRIM(I22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
       <formula>LEN(TRIM(I25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="52">
       <formula>LEN(TRIM(I27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2113,38 +2068,33 @@
       <formula>LEN(TRIM(I3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
-      <formula>LEN(TRIM(I4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
       <formula>LEN(TRIM(J12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="26">
       <formula>LEN(TRIM(J13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(J18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
       <formula>LEN(TRIM(J22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
       <formula>LEN(TRIM(J27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2154,17 +2104,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
       <formula>LEN(TRIM(J4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="24">
       <formula>LEN(TRIM(K12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="44">
       <formula>LEN(TRIM(K22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2187,869 +2137,869 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" t="s">
-        <v>121</v>
-      </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s">
         <v>150</v>
       </c>
-      <c r="K12" t="s">
-        <v>155</v>
-      </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
         <v>119</v>
       </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
